--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_11_ComplexFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_11_ComplexFormulas.xlsx
@@ -5,10 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data1" sheetId="1" r:id="Re217f5578b3d43b5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data2" sheetId="2" r:id="Raa7b5fc91eea40ba"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="3" r:id="R51c9d0b81fa040ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data1" sheetId="1" r:id="Rf77f5a4cd3fe4940"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data2" sheetId="2" r:id="R43ba038f678a4db7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="3" r:id="Rfda96762c26e4e9e"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_11_ComplexFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_11_ComplexFormulas.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data1" sheetId="1" r:id="Rf77f5a4cd3fe4940"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data2" sheetId="2" r:id="R43ba038f678a4db7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="3" r:id="Rfda96762c26e4e9e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data1" sheetId="1" r:id="R7c80e53cd9d34bae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data2" sheetId="2" r:id="Rf2a47607f3894606"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="3" r:id="R7077aefe1dc34582"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
